--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.07681761725685085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03072128138396415</v>
+        <v>0.03072128138396416</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.08416182709766318</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05137632006737469</v>
+        <v>0.05037935864343009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03300679826188264</v>
+        <v>0.03158436333262566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05249574519735661</v>
+        <v>0.05099851492484762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01118844256904457</v>
+        <v>0.01087283514033141</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0614796990065315</v>
+        <v>0.06192575751657976</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06771348481718445</v>
+        <v>0.06662736346342883</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04612233361299929</v>
+        <v>0.04511777505189234</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04187699285446815</v>
+        <v>0.0426787186777671</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06360699058738828</v>
+        <v>0.06247687047020685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05513616687958902</v>
+        <v>0.05492454787835548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05673069509218716</v>
+        <v>0.05599292933252123</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03224674511190668</v>
+        <v>0.03159731394585801</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09851109581394456</v>
+        <v>0.0988060189843661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0771314518760826</v>
+        <v>0.07619799829930414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1083091591938697</v>
+        <v>0.1038627991946436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06967199495794854</v>
+        <v>0.06565514670824836</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1132467195230079</v>
+        <v>0.1124285884436153</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1260326938104175</v>
+        <v>0.1212168132318086</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09968523231055371</v>
+        <v>0.09478086311959173</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1213435545803919</v>
+        <v>0.1236495808076335</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1001014349231415</v>
+        <v>0.0969281396555597</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09426466003980073</v>
+        <v>0.09085029992164551</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09566768002786578</v>
+        <v>0.09192304155329825</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08020677805498695</v>
+        <v>0.08129253008017899</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04506106336009574</v>
+        <v>0.04388797963100635</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03256483442125801</v>
+        <v>0.03344304758638208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04448178948749545</v>
+        <v>0.04375082611107347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002844530373021399</v>
+        <v>0.002947291602861089</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05716686757259636</v>
+        <v>0.05623905940505253</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07406883374540385</v>
+        <v>0.07579878765652405</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03840218161118558</v>
+        <v>0.03902675016704488</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01600977944700818</v>
+        <v>0.01629024103583751</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05552049638682037</v>
+        <v>0.05543380195022065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05599400996005782</v>
+        <v>0.05707767788715704</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04599370308871663</v>
+        <v>0.04502425525666352</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01281057109599078</v>
+        <v>0.01127470451355354</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08584024266918884</v>
+        <v>0.08366060442585689</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06589705599315629</v>
+        <v>0.06611141411238249</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08748945165718304</v>
+        <v>0.08343794185685217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03505849015294693</v>
+        <v>0.03437205330784331</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1040889110200884</v>
+        <v>0.1046344275780779</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1251640525657603</v>
+        <v>0.1241538872628163</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07483317700156811</v>
+        <v>0.07499603643358878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04671277579264656</v>
+        <v>0.04525015303353495</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08514075476373144</v>
+        <v>0.08487027489489379</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08503367384833212</v>
+        <v>0.08540081437026151</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07420588934694948</v>
+        <v>0.07356137666360667</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03235133504534349</v>
+        <v>0.03170146447010595</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06906359160320884</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06995750814799921</v>
+        <v>0.0699575081479992</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06323091540870321</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02769832293066317</v>
+        <v>0.02679714376224886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05834545633060595</v>
+        <v>0.05970108296893334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03105262221557286</v>
+        <v>0.03067499595897603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0350873255992662</v>
+        <v>0.03505460920530974</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06203070723048434</v>
+        <v>0.06475935733925368</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08096764428052791</v>
+        <v>0.08222482012140195</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05162576884293948</v>
+        <v>0.05218336676700872</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05403542419571653</v>
+        <v>0.05223827554212125</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05093838728142695</v>
+        <v>0.04979166413676663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07742679806066433</v>
+        <v>0.07573540268778255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04584415392059094</v>
+        <v>0.04563522363307515</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04874845327665207</v>
+        <v>0.04926726082595914</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06316815522263222</v>
+        <v>0.06105456703103488</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09811610936601643</v>
+        <v>0.09822940955200578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06584514925012834</v>
+        <v>0.06497714899357945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07394449254424887</v>
+        <v>0.07343421724108484</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1060297004990978</v>
+        <v>0.1095826176586122</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1302962776273402</v>
+        <v>0.1292373890316263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09068238889108202</v>
+        <v>0.09035674671360985</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08944656231814752</v>
+        <v>0.08806215285090097</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07942509636886501</v>
+        <v>0.07865112462266129</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1072986315333379</v>
+        <v>0.1071859456756942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07124582407078985</v>
+        <v>0.07186562920661883</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07539476887641937</v>
+        <v>0.07468784912343286</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04083215422728715</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03116537880913732</v>
+        <v>0.03116537880913731</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04426409137270622</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02330720049958969</v>
+        <v>0.02268992554189033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02780761484448623</v>
+        <v>0.02917805872376487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02516011315950749</v>
+        <v>0.02338164053422361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02068128663890433</v>
+        <v>0.02092424481699426</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03299565539177601</v>
+        <v>0.03124344288112371</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02561357268313826</v>
+        <v>0.02392850795022438</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02786272855415984</v>
+        <v>0.02716282406787832</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02161222104328495</v>
+        <v>0.02176293998940982</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03243548365172497</v>
+        <v>0.03234450117656738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03076204379179802</v>
+        <v>0.03090217469805368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02937545833898308</v>
+        <v>0.02963001081921105</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02429529114598905</v>
+        <v>0.02423840326732243</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05960325614849621</v>
+        <v>0.05883227536970304</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06393563774540464</v>
+        <v>0.06396029174439391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05777767258888534</v>
+        <v>0.05893689456775558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05023687290343207</v>
+        <v>0.04890416683814083</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07083724485973511</v>
+        <v>0.07188145469548253</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06017720408946555</v>
+        <v>0.05707535219462701</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06059365968665262</v>
+        <v>0.05888271385868837</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04274093268045646</v>
+        <v>0.04251590857173056</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05956024286975047</v>
+        <v>0.05973614201870267</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05443519243403061</v>
+        <v>0.05444515618349209</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05308730986083207</v>
+        <v>0.05190112823769129</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04178013813734387</v>
+        <v>0.0422075089885967</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02263201646952782</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02122106076904789</v>
+        <v>0.02122106076904788</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04162924996189703</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02389583496584034</v>
+        <v>0.02198129906337641</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01655545429608647</v>
+        <v>0.01545138019592326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0113387128782745</v>
+        <v>0.01083089078212409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01116369053309842</v>
+        <v>0.01129918733718089</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02480043543087386</v>
+        <v>0.02613372550249118</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01613226632331047</v>
+        <v>0.0160529031189361</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01831746072725228</v>
+        <v>0.01874157884159939</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.00739974652983572</v>
+        <v>0.006785130366444746</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02783347047941754</v>
+        <v>0.02764275923719796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02026412317185654</v>
+        <v>0.01969903628714772</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01837247085989053</v>
+        <v>0.0178933669950427</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01098196311966827</v>
+        <v>0.01076124918003313</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06191632035330669</v>
+        <v>0.06362841299702821</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04953438697285055</v>
+        <v>0.04825724664696159</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0417477519077285</v>
+        <v>0.0427156446186151</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03748090806578076</v>
+        <v>0.03738697368804749</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0657463516092389</v>
+        <v>0.06616839830267778</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0495731596993199</v>
+        <v>0.05067109101476398</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05089114577854275</v>
+        <v>0.05285771482775886</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02391549559249363</v>
+        <v>0.0220686512562722</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05596809905900747</v>
+        <v>0.05805179479777862</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04392933127738053</v>
+        <v>0.04248669928193092</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0423328874503243</v>
+        <v>0.04087104238735448</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0260353276809802</v>
+        <v>0.02555413411165419</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.02447009054449254</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.009066880651222999</v>
+        <v>0.009066880651222997</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02546047383034399</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01658143095876783</v>
+        <v>0.01705525780069163</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01656569115284253</v>
+        <v>0.01678619415894985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006301869581550579</v>
+        <v>0.006261187264254846</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009835111284901691</v>
+        <v>0.009575011458010737</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008184902277293413</v>
+        <v>0.008215387401350298</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.002698203789770127</v>
+        <v>0.002668987265288114</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01136464273601766</v>
+        <v>0.01100334075477272</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.00301899849807563</v>
+        <v>0.004353600268821472</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01518534303554489</v>
+        <v>0.01514154634565436</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01082153839314951</v>
+        <v>0.011416848753894</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01179369346929793</v>
+        <v>0.01201410453711714</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.008141863397755435</v>
+        <v>0.007910233604090385</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05643512454970476</v>
+        <v>0.05924992727786956</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05984372292256577</v>
+        <v>0.06243868430294925</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03968354835861612</v>
+        <v>0.03916678060092196</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0345522271721055</v>
+        <v>0.03423636495507248</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03607306681905813</v>
+        <v>0.03875079626898038</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02539744373932322</v>
+        <v>0.0227814481326623</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04985119659484536</v>
+        <v>0.04565233566724532</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01953814426061884</v>
+        <v>0.01952592847312563</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03936421363384224</v>
+        <v>0.04075462644183293</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03367262056583895</v>
+        <v>0.033790855158919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03572905972057715</v>
+        <v>0.03598296397862159</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02187608459413305</v>
+        <v>0.02242822059864605</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.01592281235135309</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.01075474200182511</v>
+        <v>0.0107547420018251</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.02052454008508312</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008418369787499701</v>
+        <v>0.007954888293154041</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008449853741415386</v>
+        <v>0.008402323671896103</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005780490422221967</v>
+        <v>0.003410234144283453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.003307347218233176</v>
+        <v>0.0032503883751556</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.007011165904563304</v>
+        <v>0.007011267644346138</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005625689832934663</v>
+        <v>0.005664160707229431</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003292637091157248</v>
+        <v>0.003382220148921905</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.001400826611760134</v>
+        <v>0.001400125143224646</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01089980362610041</v>
+        <v>0.01047054000040057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008477899462040115</v>
+        <v>0.008518284514666581</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.006549360684211781</v>
+        <v>0.006671059991461134</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.003267260862681331</v>
+        <v>0.00274575909546079</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04952017447307177</v>
+        <v>0.04443812025877072</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04710930392374413</v>
+        <v>0.05098481760315703</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04652528442523182</v>
+        <v>0.04100439431573977</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02887225534948839</v>
+        <v>0.02540663036337025</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04470223811928629</v>
+        <v>0.04375178646165366</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03415783312805748</v>
+        <v>0.03711488031853406</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.038758279182049</v>
+        <v>0.03723641146293234</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01141687544797248</v>
+        <v>0.01425846066703268</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03677014438954932</v>
+        <v>0.03617386526161258</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03271083608176558</v>
+        <v>0.03174787934555102</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0307070537358009</v>
+        <v>0.03072760819494418</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01556089711694311</v>
+        <v>0.01372056549568415</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.04299949685167812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.02750468997002447</v>
+        <v>0.02750468997002446</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05965660651832618</v>
@@ -1649,7 +1649,7 @@
         <v>0.0442585949944832</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.03012159912093358</v>
+        <v>0.03012159912093359</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04016744845961875</v>
+        <v>0.04013265442900916</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03694020866890367</v>
+        <v>0.03628535554080529</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02233523904975048</v>
+        <v>0.02183776636509726</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05302306005495679</v>
+        <v>0.05458954365165943</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.038857200067521</v>
+        <v>0.0392127204652896</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0268343685801086</v>
+        <v>0.02772099117759414</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05032109394903201</v>
+        <v>0.04957551096586398</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03965567644738178</v>
+        <v>0.03916936580052433</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02620641083927847</v>
+        <v>0.02601844872632015</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05506976343677429</v>
+        <v>0.05546055452612214</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05098573309205656</v>
+        <v>0.05017824328809463</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03466438735374289</v>
+        <v>0.03442042464479673</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07017522778640328</v>
+        <v>0.07176294956434134</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0535166411330987</v>
+        <v>0.05325709353075194</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03872562781317904</v>
+        <v>0.03929960356799132</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06118918531158693</v>
+        <v>0.06039417955419019</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04970562566045438</v>
+        <v>0.0494836400468465</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03474425246465321</v>
+        <v>0.03513277695113132</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25285</v>
+        <v>24795</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14947</v>
+        <v>14302</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21962</v>
+        <v>21335</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4478</v>
+        <v>4351</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28683</v>
+        <v>28891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29132</v>
+        <v>28665</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18071</v>
+        <v>17677</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15181</v>
+        <v>15472</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60981</v>
+        <v>59897</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>48689</v>
+        <v>48502</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45961</v>
+        <v>45363</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>24595</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>48483</v>
+        <v>48628</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34928</v>
+        <v>34505</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45311</v>
+        <v>43451</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27882</v>
+        <v>26275</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>52835</v>
+        <v>52454</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>54223</v>
+        <v>52151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39057</v>
+        <v>37136</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43988</v>
+        <v>44824</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>95968</v>
+        <v>92926</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>83242</v>
+        <v>80227</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>77506</v>
+        <v>74472</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>61174</v>
+        <v>62002</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32987</v>
+        <v>32128</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22375</v>
+        <v>22978</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26089</v>
+        <v>25660</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1353</v>
+        <v>1402</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35642</v>
+        <v>35064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45131</v>
+        <v>46185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21419</v>
+        <v>21768</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7938</v>
+        <v>8077</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>75260</v>
+        <v>75142</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>72591</v>
+        <v>73996</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>52629</v>
+        <v>51520</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12445</v>
+        <v>10953</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62840</v>
+        <v>61244</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45277</v>
+        <v>45424</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51313</v>
+        <v>48937</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16673</v>
+        <v>16347</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>64897</v>
+        <v>65237</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>76265</v>
+        <v>75649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41739</v>
+        <v>41830</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23162</v>
+        <v>22437</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>115411</v>
+        <v>115044</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>110238</v>
+        <v>110714</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84911</v>
+        <v>84174</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>31427</v>
+        <v>30796</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17631</v>
+        <v>17057</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39784</v>
+        <v>40708</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20726</v>
+        <v>20474</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21639</v>
+        <v>21619</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>42785</v>
+        <v>44667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>57475</v>
+        <v>58367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34145</v>
+        <v>34513</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33559</v>
+        <v>32442</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67558</v>
+        <v>66038</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>107756</v>
+        <v>105402</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>60919</v>
+        <v>60641</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>60339</v>
+        <v>60982</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40209</v>
+        <v>38863</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66902</v>
+        <v>66979</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43948</v>
+        <v>43368</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45603</v>
+        <v>45289</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73133</v>
+        <v>75584</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>92491</v>
+        <v>91739</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59976</v>
+        <v>59761</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55551</v>
+        <v>54691</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>105340</v>
+        <v>104313</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>149329</v>
+        <v>149172</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>94673</v>
+        <v>95497</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>93321</v>
+        <v>92446</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12051</v>
+        <v>11731</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16890</v>
+        <v>17722</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16151</v>
+        <v>15010</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14430</v>
+        <v>14599</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16883</v>
+        <v>15986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15625</v>
+        <v>14597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17996</v>
+        <v>17544</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15724</v>
+        <v>15834</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33366</v>
+        <v>33273</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>37450</v>
+        <v>37621</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>37830</v>
+        <v>38158</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>34628</v>
+        <v>34547</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30817</v>
+        <v>30418</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38834</v>
+        <v>38849</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37090</v>
+        <v>37834</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35051</v>
+        <v>34121</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36245</v>
+        <v>36779</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>36710</v>
+        <v>34818</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39136</v>
+        <v>38031</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31097</v>
+        <v>30933</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>61270</v>
+        <v>61451</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>66271</v>
+        <v>66283</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>68367</v>
+        <v>66840</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>59549</v>
+        <v>60158</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9241</v>
+        <v>8500</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7109</v>
+        <v>6635</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5372</v>
+        <v>5131</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6737</v>
+        <v>6819</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10019</v>
+        <v>10558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7188</v>
+        <v>7153</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9080</v>
+        <v>9290</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4444</v>
+        <v>4075</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22008</v>
+        <v>21857</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17731</v>
+        <v>17237</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17811</v>
+        <v>17347</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>13223</v>
+        <v>12957</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23944</v>
+        <v>24606</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21272</v>
+        <v>20723</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19778</v>
+        <v>20237</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22619</v>
+        <v>22562</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26561</v>
+        <v>26731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22088</v>
+        <v>22577</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25226</v>
+        <v>26201</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14363</v>
+        <v>13254</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44254</v>
+        <v>45901</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>38438</v>
+        <v>37176</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>41039</v>
+        <v>39622</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>31348</v>
+        <v>30769</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4838</v>
+        <v>4976</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5116</v>
+        <v>5184</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2095</v>
+        <v>2082</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3978</v>
+        <v>3873</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2791</v>
+        <v>2801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4282</v>
+        <v>4145</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1309</v>
+        <v>1887</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9608</v>
+        <v>9580</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7162</v>
+        <v>7555</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8364</v>
+        <v>8521</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6822</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16465</v>
+        <v>17286</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18480</v>
+        <v>19281</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13194</v>
+        <v>13022</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13974</v>
+        <v>13847</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12299</v>
+        <v>13212</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8965</v>
+        <v>8041</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>18781</v>
+        <v>17199</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8470</v>
+        <v>8465</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>24906</v>
+        <v>25785</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22284</v>
+        <v>22362</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>25340</v>
+        <v>25520</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>18331</v>
+        <v>18794</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1767</v>
+        <v>1670</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2085</v>
+        <v>2073</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1471</v>
+        <v>868</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>2341</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2170</v>
+        <v>2185</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1307</v>
+        <v>1343</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5927</v>
+        <v>5694</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5362</v>
+        <v>5387</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4267</v>
+        <v>4346</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2497</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10393</v>
+        <v>9327</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11623</v>
+        <v>12579</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11842</v>
+        <v>10437</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8818</v>
+        <v>7760</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14926</v>
+        <v>14609</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>13175</v>
+        <v>14315</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>15385</v>
+        <v>14781</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>5237</v>
+        <v>6540</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>19995</v>
+        <v>19671</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>20687</v>
+        <v>20078</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>20005</v>
+        <v>20018</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>11890</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>137136</v>
+        <v>137018</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>124673</v>
+        <v>122463</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>78253</v>
+        <v>76510</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>187897</v>
+        <v>193448</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>137019</v>
+        <v>138272</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>99280</v>
+        <v>102561</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>350124</v>
+        <v>344937</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>273672</v>
+        <v>270316</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>188773</v>
+        <v>187419</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>188015</v>
+        <v>189349</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>172077</v>
+        <v>169352</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>121449</v>
+        <v>120594</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>248679</v>
+        <v>254305</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>188711</v>
+        <v>187796</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>143275</v>
+        <v>145399</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>425742</v>
+        <v>420211</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>343029</v>
+        <v>341497</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>250274</v>
+        <v>253072</v>
       </c>
     </row>
     <row r="36">
